--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel40/field_16ha_100ha_2%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel40/field_16ha_100ha_2%_12m_0_LM/Planilha_Unificada.xlsx
@@ -2027,28 +2027,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>58.32896243969405</v>
+        <v>70.52465256192309</v>
       </c>
       <c r="AB2" t="n">
-        <v>79.80825970216956</v>
+        <v>96.49494096327052</v>
       </c>
       <c r="AC2" t="n">
-        <v>72.19147140780902</v>
+        <v>87.28559922926003</v>
       </c>
       <c r="AD2" t="n">
-        <v>58328.96243969405</v>
+        <v>70524.6525619231</v>
       </c>
       <c r="AE2" t="n">
-        <v>79808.25970216957</v>
+        <v>96494.94096327052</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.853259792741038e-06</v>
+        <v>8.979801270013757e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.131510416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>72191.47140780902</v>
+        <v>87285.59922926003</v>
       </c>
     </row>
     <row r="3">
@@ -2133,28 +2133,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>43.74523951132257</v>
+        <v>68.05109988410696</v>
       </c>
       <c r="AB3" t="n">
-        <v>59.8541666031342</v>
+        <v>93.1105170640417</v>
       </c>
       <c r="AC3" t="n">
-        <v>54.14176894839368</v>
+        <v>84.22417999690379</v>
       </c>
       <c r="AD3" t="n">
-        <v>43745.23951132257</v>
+        <v>68051.09988410697</v>
       </c>
       <c r="AE3" t="n">
-        <v>59854.1666031342</v>
+        <v>93110.51706404171</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.547226179007096e-06</v>
+        <v>1.026382077501933e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.740885416666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>54141.76894839368</v>
+        <v>84224.17999690378</v>
       </c>
     </row>
     <row r="4">
@@ -2239,28 +2239,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>43.06810221343998</v>
+        <v>55.34904368168961</v>
       </c>
       <c r="AB4" t="n">
-        <v>58.92767747898246</v>
+        <v>75.73100339273265</v>
       </c>
       <c r="AC4" t="n">
-        <v>53.30370264591505</v>
+        <v>68.5033427180783</v>
       </c>
       <c r="AD4" t="n">
-        <v>43068.10221343998</v>
+        <v>55349.04368168961</v>
       </c>
       <c r="AE4" t="n">
-        <v>58927.67747898246</v>
+        <v>75731.00339273264</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.785169515645494e-06</v>
+        <v>1.070407824479925e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.623697916666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>53303.70264591504</v>
+        <v>68503.3427180783</v>
       </c>
     </row>
     <row r="5">
@@ -2345,28 +2345,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>42.67019587873795</v>
+        <v>54.95113734698759</v>
       </c>
       <c r="AB5" t="n">
-        <v>58.38324447745487</v>
+        <v>75.18657039120505</v>
       </c>
       <c r="AC5" t="n">
-        <v>52.81122956593655</v>
+        <v>68.01086963809981</v>
       </c>
       <c r="AD5" t="n">
-        <v>42670.19587873795</v>
+        <v>54951.13734698758</v>
       </c>
       <c r="AE5" t="n">
-        <v>58383.24447745486</v>
+        <v>75186.57039120505</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.865114181918449e-06</v>
+        <v>1.08519968080714e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.591145833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>52811.22956593655</v>
+        <v>68010.8696380998</v>
       </c>
     </row>
   </sheetData>
@@ -2642,28 +2642,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>42.69366266387637</v>
+        <v>66.1357460747389</v>
       </c>
       <c r="AB2" t="n">
-        <v>58.41535276816273</v>
+        <v>90.48984548261924</v>
       </c>
       <c r="AC2" t="n">
-        <v>52.84027348644352</v>
+        <v>81.85362163307579</v>
       </c>
       <c r="AD2" t="n">
-        <v>42693.66266387637</v>
+        <v>66135.7460747389</v>
       </c>
       <c r="AE2" t="n">
-        <v>58415.35276816272</v>
+        <v>90489.84548261925</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.609295997258154e-06</v>
+        <v>1.06921838668799e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.799479166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>52840.27348644352</v>
+        <v>81853.62163307579</v>
       </c>
     </row>
     <row r="3">
@@ -2748,28 +2748,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>41.20005137712329</v>
+        <v>53.04910436441531</v>
       </c>
       <c r="AB3" t="n">
-        <v>56.37172791198983</v>
+        <v>72.58412495267797</v>
       </c>
       <c r="AC3" t="n">
-        <v>50.99168931839726</v>
+        <v>65.6567979396698</v>
       </c>
       <c r="AD3" t="n">
-        <v>41200.05137712329</v>
+        <v>53049.10436441531</v>
       </c>
       <c r="AE3" t="n">
-        <v>56371.72791198983</v>
+        <v>72584.12495267797</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.226431320942841e-06</v>
+        <v>1.18685390377977e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.526041666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>50991.68931839726</v>
+        <v>65656.79793966981</v>
       </c>
     </row>
     <row r="4">
@@ -2854,28 +2854,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>40.8155760217068</v>
+        <v>52.49403680840656</v>
       </c>
       <c r="AB4" t="n">
-        <v>55.84567176885597</v>
+        <v>71.82465703469488</v>
       </c>
       <c r="AC4" t="n">
-        <v>50.5158392352381</v>
+        <v>64.96981257385887</v>
       </c>
       <c r="AD4" t="n">
-        <v>40815.5760217068</v>
+        <v>52494.03680840656</v>
       </c>
       <c r="AE4" t="n">
-        <v>55845.67176885597</v>
+        <v>71824.65703469489</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.304110495224618e-06</v>
+        <v>1.201660753239205e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.493489583333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>50515.8392352381</v>
+        <v>64969.81257385887</v>
       </c>
     </row>
   </sheetData>
@@ -3151,28 +3151,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>35.53017499694544</v>
+        <v>45.90836614211803</v>
       </c>
       <c r="AB2" t="n">
-        <v>48.61395291137595</v>
+        <v>62.81385188979888</v>
       </c>
       <c r="AC2" t="n">
-        <v>43.97430547571329</v>
+        <v>56.81898602524442</v>
       </c>
       <c r="AD2" t="n">
-        <v>35530.17499694544</v>
+        <v>45908.36614211803</v>
       </c>
       <c r="AE2" t="n">
-        <v>48613.95291137595</v>
+        <v>62813.85188979888</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.852190460821326e-06</v>
+        <v>1.672311074026539e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.233072916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>43974.30547571328</v>
+        <v>56818.98602524442</v>
       </c>
     </row>
   </sheetData>
@@ -3448,28 +3448,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>38.08529288483317</v>
+        <v>48.97183758501561</v>
       </c>
       <c r="AB2" t="n">
-        <v>52.10997792941258</v>
+        <v>67.00542866879084</v>
       </c>
       <c r="AC2" t="n">
-        <v>47.13667477274085</v>
+        <v>60.61052459936568</v>
       </c>
       <c r="AD2" t="n">
-        <v>38085.29288483316</v>
+        <v>48971.83758501562</v>
       </c>
       <c r="AE2" t="n">
-        <v>52109.97792941258</v>
+        <v>67005.42866879085</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.945736852653959e-06</v>
+        <v>1.410224717203519e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.415364583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>47136.67477274084</v>
+        <v>60610.52459936568</v>
       </c>
     </row>
     <row r="3">
@@ -3554,28 +3554,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>37.45359969997292</v>
+        <v>48.34014440015527</v>
       </c>
       <c r="AB3" t="n">
-        <v>51.2456674455545</v>
+        <v>66.14111818492887</v>
       </c>
       <c r="AC3" t="n">
-        <v>46.35485286839222</v>
+        <v>59.82870269501584</v>
       </c>
       <c r="AD3" t="n">
-        <v>37453.59969997292</v>
+        <v>48340.14440015527</v>
       </c>
       <c r="AE3" t="n">
-        <v>51245.6674455545</v>
+        <v>66141.11818492887</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.318231734131065e-06</v>
+        <v>1.485854056470827e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.291666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>46354.85286839222</v>
+        <v>59828.70269501584</v>
       </c>
     </row>
   </sheetData>
@@ -3851,28 +3851,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>34.01856946781</v>
+        <v>43.97980641878498</v>
       </c>
       <c r="AB2" t="n">
-        <v>46.54570753909347</v>
+        <v>60.17511139428571</v>
       </c>
       <c r="AC2" t="n">
-        <v>42.10345053895468</v>
+        <v>54.43208321912664</v>
       </c>
       <c r="AD2" t="n">
-        <v>34018.56946781</v>
+        <v>43979.80641878498</v>
       </c>
       <c r="AE2" t="n">
-        <v>46545.70753909347</v>
+        <v>60175.11139428571</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.202312769218638e-06</v>
+        <v>1.826494842817344e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.220052083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>42103.45053895468</v>
+        <v>54432.08321912664</v>
       </c>
     </row>
   </sheetData>
@@ -4148,28 +4148,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>43.56606696867615</v>
+        <v>67.23518676928791</v>
       </c>
       <c r="AB2" t="n">
-        <v>59.60901482575078</v>
+        <v>91.99414874480065</v>
       </c>
       <c r="AC2" t="n">
-        <v>53.92001411257097</v>
+        <v>83.21435630321795</v>
       </c>
       <c r="AD2" t="n">
-        <v>43566.06696867615</v>
+        <v>67235.1867692879</v>
       </c>
       <c r="AE2" t="n">
-        <v>59609.01482575078</v>
+        <v>91994.14874480065</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.384485546091446e-06</v>
+        <v>1.018078964477446e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.890625</v>
       </c>
       <c r="AH2" t="n">
-        <v>53920.01411257098</v>
+        <v>83214.35630321795</v>
       </c>
     </row>
     <row r="3">
@@ -4254,28 +4254,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>41.94351568842576</v>
+        <v>53.9060868705925</v>
       </c>
       <c r="AB3" t="n">
-        <v>57.3889685820395</v>
+        <v>73.75668622502889</v>
       </c>
       <c r="AC3" t="n">
-        <v>51.91184596660666</v>
+        <v>66.717451609888</v>
       </c>
       <c r="AD3" t="n">
-        <v>41943.51568842575</v>
+        <v>53906.08687059249</v>
       </c>
       <c r="AE3" t="n">
-        <v>57388.9685820395</v>
+        <v>73756.68622502888</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.004907194315614e-06</v>
+        <v>1.13538603564638e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.591145833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>51911.84596660666</v>
+        <v>66717.451609888</v>
       </c>
     </row>
     <row r="4">
@@ -4360,28 +4360,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>41.35338869578911</v>
+        <v>53.31595987795576</v>
       </c>
       <c r="AB4" t="n">
-        <v>56.58153079615246</v>
+        <v>72.94924843913822</v>
       </c>
       <c r="AC4" t="n">
-        <v>51.18146890975623</v>
+        <v>65.98707455303644</v>
       </c>
       <c r="AD4" t="n">
-        <v>41353.38869578911</v>
+        <v>53315.95987795576</v>
       </c>
       <c r="AE4" t="n">
-        <v>56581.53079615246</v>
+        <v>72949.24843913822</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.162124389858205e-06</v>
+        <v>1.165112091787851e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.526041666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>51181.46890975624</v>
+        <v>65987.07455303644</v>
       </c>
     </row>
     <row r="5">
@@ -4466,28 +4466,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>41.19608112856225</v>
+        <v>52.98806011013667</v>
       </c>
       <c r="AB5" t="n">
-        <v>56.36629564275363</v>
+        <v>72.50060151089157</v>
       </c>
       <c r="AC5" t="n">
-        <v>50.98677549731271</v>
+        <v>65.58124585794157</v>
       </c>
       <c r="AD5" t="n">
-        <v>41196.08112856225</v>
+        <v>52988.06011013667</v>
       </c>
       <c r="AE5" t="n">
-        <v>56366.29564275363</v>
+        <v>72500.60151089157</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.260642379819979e-06</v>
+        <v>1.183739515400398e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.486979166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>50986.77549731272</v>
+        <v>65581.24585794157</v>
       </c>
     </row>
   </sheetData>
@@ -4763,28 +4763,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>33.19335394385638</v>
+        <v>42.90769158263652</v>
       </c>
       <c r="AB2" t="n">
-        <v>45.41661125328608</v>
+        <v>58.7081965770997</v>
       </c>
       <c r="AC2" t="n">
-        <v>41.08211361796479</v>
+        <v>53.10516869326452</v>
       </c>
       <c r="AD2" t="n">
-        <v>33193.35394385638</v>
+        <v>42907.69158263651</v>
       </c>
       <c r="AE2" t="n">
-        <v>45416.61125328608</v>
+        <v>58708.1965770997</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.283498287277478e-06</v>
+        <v>1.899047273205416e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.252604166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>41082.11361796479</v>
+        <v>53105.16869326452</v>
       </c>
     </row>
   </sheetData>
@@ -5060,28 +5060,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>40.37745470169556</v>
+        <v>51.85808622292722</v>
       </c>
       <c r="AB2" t="n">
-        <v>55.24621485027099</v>
+        <v>70.95452138748276</v>
       </c>
       <c r="AC2" t="n">
-        <v>49.97359364361802</v>
+        <v>64.18272145157333</v>
       </c>
       <c r="AD2" t="n">
-        <v>40377.45470169556</v>
+        <v>51858.08622292722</v>
       </c>
       <c r="AE2" t="n">
-        <v>55246.21485027099</v>
+        <v>70954.52138748276</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.241254061533169e-06</v>
+        <v>1.223277170688467e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.59765625</v>
       </c>
       <c r="AH2" t="n">
-        <v>49973.59364361802</v>
+        <v>64182.72145157334</v>
       </c>
     </row>
     <row r="3">
@@ -5166,28 +5166,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>39.33215001043313</v>
+        <v>50.64218933107243</v>
       </c>
       <c r="AB3" t="n">
-        <v>53.81598285610436</v>
+        <v>69.29087761846284</v>
       </c>
       <c r="AC3" t="n">
-        <v>48.67986098362719</v>
+        <v>62.67785350892944</v>
       </c>
       <c r="AD3" t="n">
-        <v>39332.15001043314</v>
+        <v>50642.18933107243</v>
       </c>
       <c r="AE3" t="n">
-        <v>53815.98285610435</v>
+        <v>69290.87761846284</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.703244837360869e-06</v>
+        <v>1.313826724282485e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.415364583333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>48679.86098362719</v>
+        <v>62677.85350892944</v>
       </c>
     </row>
     <row r="4">
@@ -5272,28 +5272,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>39.20978858656498</v>
+        <v>50.51982790720425</v>
       </c>
       <c r="AB4" t="n">
-        <v>53.64856255776371</v>
+        <v>69.12345732012143</v>
       </c>
       <c r="AC4" t="n">
-        <v>48.52841904358381</v>
+        <v>62.52641156888583</v>
       </c>
       <c r="AD4" t="n">
-        <v>39209.78858656497</v>
+        <v>50519.82790720425</v>
       </c>
       <c r="AE4" t="n">
-        <v>53648.56255776371</v>
+        <v>69123.45732012144</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.799946945365299e-06</v>
+        <v>1.332780203809677e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.3828125</v>
       </c>
       <c r="AH4" t="n">
-        <v>48528.41904358381</v>
+        <v>62526.41156888583</v>
       </c>
     </row>
   </sheetData>
@@ -5569,28 +5569,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>41.83269525947202</v>
+        <v>65.03910893691267</v>
       </c>
       <c r="AB2" t="n">
-        <v>57.23733918209345</v>
+        <v>88.98937817043014</v>
       </c>
       <c r="AC2" t="n">
-        <v>51.77468786377783</v>
+        <v>80.49635681524242</v>
       </c>
       <c r="AD2" t="n">
-        <v>41832.69525947202</v>
+        <v>65039.10893691267</v>
       </c>
       <c r="AE2" t="n">
-        <v>57237.33918209345</v>
+        <v>88989.37817043014</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.841640123490502e-06</v>
+        <v>1.123173946491786e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.71484375</v>
       </c>
       <c r="AH2" t="n">
-        <v>51774.68786377783</v>
+        <v>80496.35681524243</v>
       </c>
     </row>
     <row r="3">
@@ -5675,28 +5675,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>40.58115854533607</v>
+        <v>52.14178446532314</v>
       </c>
       <c r="AB3" t="n">
-        <v>55.52493143591791</v>
+        <v>71.3426898386118</v>
       </c>
       <c r="AC3" t="n">
-        <v>50.22570990951282</v>
+        <v>64.53384365052459</v>
       </c>
       <c r="AD3" t="n">
-        <v>40581.15854533607</v>
+        <v>52141.78446532314</v>
       </c>
       <c r="AE3" t="n">
-        <v>55524.93143591791</v>
+        <v>71342.6898386118</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.398310652055831e-06</v>
+        <v>1.230205160542473e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.48046875</v>
       </c>
       <c r="AH3" t="n">
-        <v>50225.70990951281</v>
+        <v>64533.84365052458</v>
       </c>
     </row>
     <row r="4">
@@ -5781,28 +5781,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>40.28575994531336</v>
+        <v>51.84638586530038</v>
       </c>
       <c r="AB4" t="n">
-        <v>55.12075403930231</v>
+        <v>70.93851244199438</v>
       </c>
       <c r="AC4" t="n">
-        <v>49.86010663636247</v>
+        <v>64.16824037737368</v>
       </c>
       <c r="AD4" t="n">
-        <v>40285.75994531336</v>
+        <v>51846.38586530038</v>
       </c>
       <c r="AE4" t="n">
-        <v>55120.75403930232</v>
+        <v>70938.51244199437</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.482455971695342e-06</v>
+        <v>1.246383807076736e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.447916666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>49860.10663636247</v>
+        <v>64168.24037737367</v>
       </c>
     </row>
   </sheetData>
@@ -6078,28 +6078,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>57.20511413742631</v>
+        <v>69.29805908534674</v>
       </c>
       <c r="AB2" t="n">
-        <v>78.27056087431976</v>
+        <v>94.81666165513452</v>
       </c>
       <c r="AC2" t="n">
-        <v>70.80052839791483</v>
+        <v>85.76749254281219</v>
       </c>
       <c r="AD2" t="n">
-        <v>57205.11413742631</v>
+        <v>69298.05908534673</v>
       </c>
       <c r="AE2" t="n">
-        <v>78270.56087431975</v>
+        <v>94816.66165513452</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.061929816685003e-06</v>
+        <v>9.429991319207832e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.02734375</v>
       </c>
       <c r="AH2" t="n">
-        <v>70800.52839791484</v>
+        <v>85767.49254281219</v>
       </c>
     </row>
     <row r="3">
@@ -6184,28 +6184,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>42.99273141446172</v>
+        <v>67.09310143862886</v>
       </c>
       <c r="AB3" t="n">
-        <v>58.82455182669548</v>
+        <v>91.79974132703065</v>
       </c>
       <c r="AC3" t="n">
-        <v>53.21041916114453</v>
+        <v>83.03850285654732</v>
       </c>
       <c r="AD3" t="n">
-        <v>42992.73141446171</v>
+        <v>67093.10143862886</v>
       </c>
       <c r="AE3" t="n">
-        <v>58824.55182669548</v>
+        <v>91799.74132703064</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.762384919186254e-06</v>
+        <v>1.07348860481528e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.65625</v>
       </c>
       <c r="AH3" t="n">
-        <v>53210.41916114453</v>
+        <v>83038.50285654732</v>
       </c>
     </row>
     <row r="4">
@@ -6290,28 +6290,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>42.52010455956061</v>
+        <v>54.69830085350162</v>
       </c>
       <c r="AB4" t="n">
-        <v>58.17788291299486</v>
+        <v>74.84062834645886</v>
       </c>
       <c r="AC4" t="n">
-        <v>52.62546742096178</v>
+        <v>67.69794381657137</v>
       </c>
       <c r="AD4" t="n">
-        <v>42520.10455956061</v>
+        <v>54698.30085350162</v>
       </c>
       <c r="AE4" t="n">
-        <v>58177.88291299486</v>
+        <v>74840.62834645886</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.907882697355202e-06</v>
+        <v>1.100593737339534e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.591145833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>52625.46742096177</v>
+        <v>67697.94381657137</v>
       </c>
     </row>
     <row r="5">
@@ -6396,28 +6396,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>42.21059656453757</v>
+        <v>54.38879285847857</v>
       </c>
       <c r="AB5" t="n">
-        <v>57.75440041967548</v>
+        <v>74.41714585313949</v>
       </c>
       <c r="AC5" t="n">
-        <v>52.24240150244325</v>
+        <v>67.31487789805286</v>
       </c>
       <c r="AD5" t="n">
-        <v>42210.59656453757</v>
+        <v>54388.79285847857</v>
       </c>
       <c r="AE5" t="n">
-        <v>57754.40041967548</v>
+        <v>74417.14585313949</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.981290373274852e-06</v>
+        <v>1.114269030592392e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.55859375</v>
       </c>
       <c r="AH5" t="n">
-        <v>52242.40150244325</v>
+        <v>67314.87789805286</v>
       </c>
     </row>
   </sheetData>
@@ -6693,28 +6693,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>38.6526241726965</v>
+        <v>49.68785631578775</v>
       </c>
       <c r="AB2" t="n">
-        <v>52.88622562635341</v>
+        <v>67.98511708474977</v>
       </c>
       <c r="AC2" t="n">
-        <v>47.83883847895844</v>
+        <v>61.49671292790713</v>
       </c>
       <c r="AD2" t="n">
-        <v>38652.6241726965</v>
+        <v>49687.85631578775</v>
       </c>
       <c r="AE2" t="n">
-        <v>52886.22562635341</v>
+        <v>67985.11708474977</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.825590944935055e-06</v>
+        <v>1.3681878995191e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.428385416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>47838.83847895844</v>
+        <v>61496.71292790712</v>
       </c>
     </row>
     <row r="3">
@@ -6799,28 +6799,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>38.11716767842677</v>
+        <v>49.15239982151792</v>
       </c>
       <c r="AB3" t="n">
-        <v>52.15359042822378</v>
+        <v>67.25248188661685</v>
       </c>
       <c r="AC3" t="n">
-        <v>47.17612495587616</v>
+        <v>60.83399940482381</v>
       </c>
       <c r="AD3" t="n">
-        <v>38117.16767842677</v>
+        <v>49152.39982151792</v>
       </c>
       <c r="AE3" t="n">
-        <v>52153.59042822378</v>
+        <v>67252.48188661685</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.10008479459786e-06</v>
+        <v>1.423210119079408e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.330729166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>47176.12495587616</v>
+        <v>60833.99940482381</v>
       </c>
     </row>
   </sheetData>
@@ -7096,28 +7096,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>36.29775204074274</v>
+        <v>46.85774970159662</v>
       </c>
       <c r="AB2" t="n">
-        <v>49.66418568580356</v>
+        <v>64.11284035972346</v>
       </c>
       <c r="AC2" t="n">
-        <v>44.92430550816361</v>
+        <v>57.99400085874156</v>
       </c>
       <c r="AD2" t="n">
-        <v>36297.75204074274</v>
+        <v>46857.74970159661</v>
       </c>
       <c r="AE2" t="n">
-        <v>49664.18568580356</v>
+        <v>64112.84035972346</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.602110966318051e-06</v>
+        <v>1.590409156172152e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.272135416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>44924.30550816361</v>
+        <v>57994.00085874157</v>
       </c>
     </row>
     <row r="3">
@@ -7202,28 +7202,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>36.31982669924028</v>
+        <v>46.87982436009415</v>
       </c>
       <c r="AB3" t="n">
-        <v>49.69438920742495</v>
+        <v>64.14304388134499</v>
       </c>
       <c r="AC3" t="n">
-        <v>44.95162644807246</v>
+        <v>58.02132179865045</v>
       </c>
       <c r="AD3" t="n">
-        <v>36319.82669924028</v>
+        <v>46879.82436009416</v>
       </c>
       <c r="AE3" t="n">
-        <v>49694.38920742495</v>
+        <v>64143.04388134499</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.573157210074174e-06</v>
+        <v>1.584351849295172e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.278645833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>44951.62644807246</v>
+        <v>58021.32179865045</v>
       </c>
     </row>
   </sheetData>
@@ -12144,28 +12144,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>34.84518743699625</v>
+        <v>45.02532129387185</v>
       </c>
       <c r="AB2" t="n">
-        <v>47.67672271233965</v>
+        <v>61.60563097123982</v>
       </c>
       <c r="AC2" t="n">
-        <v>43.12652321145937</v>
+        <v>55.72607601540353</v>
       </c>
       <c r="AD2" t="n">
-        <v>34845.18743699625</v>
+        <v>45025.32129387185</v>
       </c>
       <c r="AE2" t="n">
-        <v>47676.72271233964</v>
+        <v>61605.63097123982</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.980986590063182e-06</v>
+        <v>1.734951374795878e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.239583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>43126.52321145937</v>
+        <v>55726.07601540353</v>
       </c>
     </row>
   </sheetData>
@@ -12441,28 +12441,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>32.12008311048191</v>
+        <v>41.54720910550029</v>
       </c>
       <c r="AB2" t="n">
-        <v>43.94811474970278</v>
+        <v>56.84672443147101</v>
       </c>
       <c r="AC2" t="n">
-        <v>39.75376835963134</v>
+        <v>51.42135283672238</v>
       </c>
       <c r="AD2" t="n">
-        <v>32120.08311048191</v>
+        <v>41547.20910550029</v>
       </c>
       <c r="AE2" t="n">
-        <v>43948.11474970279</v>
+        <v>56846.72443147101</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.43511993253445e-06</v>
+        <v>2.006316020008406e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.272135416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>39753.76835963134</v>
+        <v>51421.35283672238</v>
       </c>
     </row>
   </sheetData>
@@ -12738,28 +12738,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>41.19452867834073</v>
+        <v>64.15570042607926</v>
       </c>
       <c r="AB2" t="n">
-        <v>56.3641715118713</v>
+        <v>87.78065967267557</v>
       </c>
       <c r="AC2" t="n">
-        <v>50.98485409050055</v>
+        <v>79.40299671446611</v>
       </c>
       <c r="AD2" t="n">
-        <v>41194.52867834073</v>
+        <v>64155.70042607927</v>
       </c>
       <c r="AE2" t="n">
-        <v>56364.1715118713</v>
+        <v>87780.65967267557</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.994518679358845e-06</v>
+        <v>1.163283223861425e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.67578125</v>
       </c>
       <c r="AH2" t="n">
-        <v>50984.85409050055</v>
+        <v>79402.99671446611</v>
       </c>
     </row>
     <row r="3">
@@ -12844,28 +12844,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>39.9027695001429</v>
+        <v>51.34077445527887</v>
       </c>
       <c r="AB3" t="n">
-        <v>54.59672961587668</v>
+        <v>70.24671260480216</v>
       </c>
       <c r="AC3" t="n">
-        <v>49.38609436843412</v>
+        <v>63.54246494569568</v>
       </c>
       <c r="AD3" t="n">
-        <v>39902.7695001429</v>
+        <v>51340.77445527887</v>
       </c>
       <c r="AE3" t="n">
-        <v>54596.72961587668</v>
+        <v>70246.71260480216</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.573388931557146e-06</v>
+        <v>1.275617522775769e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.44140625</v>
       </c>
       <c r="AH3" t="n">
-        <v>49386.09436843412</v>
+        <v>63542.46494569568</v>
       </c>
     </row>
     <row r="4">
@@ -12950,28 +12950,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>39.78915349238655</v>
+        <v>51.2271584475225</v>
       </c>
       <c r="AB4" t="n">
-        <v>54.44127518168069</v>
+        <v>70.09125817060546</v>
       </c>
       <c r="AC4" t="n">
-        <v>49.24547628725566</v>
+        <v>63.40184686451699</v>
       </c>
       <c r="AD4" t="n">
-        <v>39789.15349238655</v>
+        <v>51227.1584475225</v>
       </c>
       <c r="AE4" t="n">
-        <v>54441.27518168068</v>
+        <v>70091.25817060546</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.625975452149822e-06</v>
+        <v>1.285822348297015e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.421875</v>
       </c>
       <c r="AH4" t="n">
-        <v>49245.47628725566</v>
+        <v>63401.84686451699</v>
       </c>
     </row>
   </sheetData>
@@ -13247,28 +13247,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>44.15829154203522</v>
+        <v>68.04661209571222</v>
       </c>
       <c r="AB2" t="n">
-        <v>60.41932261412447</v>
+        <v>93.10437667397277</v>
       </c>
       <c r="AC2" t="n">
-        <v>54.65298726289667</v>
+        <v>84.21862563704492</v>
       </c>
       <c r="AD2" t="n">
-        <v>44158.29154203522</v>
+        <v>68046.61209571222</v>
       </c>
       <c r="AE2" t="n">
-        <v>60419.32261412447</v>
+        <v>93104.37667397277</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.261892205925652e-06</v>
+        <v>9.873373646319978e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.936197916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>54652.98726289667</v>
+        <v>84218.62563704493</v>
       </c>
     </row>
     <row r="3">
@@ -13353,28 +13353,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>42.55343908210384</v>
+        <v>54.62561064079977</v>
       </c>
       <c r="AB3" t="n">
-        <v>58.22349267735382</v>
+        <v>74.7411703905744</v>
       </c>
       <c r="AC3" t="n">
-        <v>52.66672425342404</v>
+        <v>67.60797798840638</v>
       </c>
       <c r="AD3" t="n">
-        <v>42553.43908210384</v>
+        <v>54625.61064079977</v>
       </c>
       <c r="AE3" t="n">
-        <v>58223.49267735382</v>
+        <v>74741.17039057439</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.859732058355911e-06</v>
+        <v>1.099515569975267e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.63671875</v>
       </c>
       <c r="AH3" t="n">
-        <v>52666.72425342404</v>
+        <v>67607.97798840638</v>
       </c>
     </row>
     <row r="4">
@@ -13459,28 +13459,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>41.98664179583203</v>
+        <v>54.0588133545314</v>
       </c>
       <c r="AB4" t="n">
-        <v>57.44797562478205</v>
+        <v>73.96565333817092</v>
       </c>
       <c r="AC4" t="n">
-        <v>51.96522146000696</v>
+        <v>66.90647519503902</v>
       </c>
       <c r="AD4" t="n">
-        <v>41986.64179583203</v>
+        <v>54058.8133545314</v>
       </c>
       <c r="AE4" t="n">
-        <v>57447.97562478205</v>
+        <v>73965.65333817093</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.018728990537959e-06</v>
+        <v>1.129349630777274e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.565104166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>51965.22146000696</v>
+        <v>66906.47519503902</v>
       </c>
     </row>
     <row r="5">
@@ -13565,28 +13565,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>41.71459248054611</v>
+        <v>53.78676403924544</v>
       </c>
       <c r="AB5" t="n">
-        <v>57.07574574964092</v>
+        <v>73.59342346302813</v>
       </c>
       <c r="AC5" t="n">
-        <v>51.62851668172028</v>
+        <v>66.56977041675182</v>
       </c>
       <c r="AD5" t="n">
-        <v>41714.59248054611</v>
+        <v>53786.76403924544</v>
       </c>
       <c r="AE5" t="n">
-        <v>57075.74574964092</v>
+        <v>73593.42346302813</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.117016709133933e-06</v>
+        <v>1.147792261917638e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.526041666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>51628.51668172028</v>
+        <v>66569.77041675182</v>
       </c>
     </row>
   </sheetData>
@@ -13862,28 +13862,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>30.95511020976078</v>
+        <v>40.03005182697205</v>
       </c>
       <c r="AB2" t="n">
-        <v>42.35414743196676</v>
+        <v>54.77088291074344</v>
       </c>
       <c r="AC2" t="n">
-        <v>38.31192704554812</v>
+        <v>49.54362671726498</v>
       </c>
       <c r="AD2" t="n">
-        <v>30955.11020976078</v>
+        <v>40030.05182697205</v>
       </c>
       <c r="AE2" t="n">
-        <v>42354.14743196676</v>
+        <v>54770.88291074344</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.153749039209794e-06</v>
+        <v>2.039190756286779e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.434895833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>38311.92704554812</v>
+        <v>49543.62671726498</v>
       </c>
     </row>
   </sheetData>
@@ -14159,28 +14159,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>37.27840594269306</v>
+        <v>48.00710157101797</v>
       </c>
       <c r="AB2" t="n">
-        <v>51.00595961784228</v>
+        <v>65.6854342932908</v>
       </c>
       <c r="AC2" t="n">
-        <v>46.13802241932409</v>
+        <v>59.4165086344392</v>
       </c>
       <c r="AD2" t="n">
-        <v>37278.40594269306</v>
+        <v>48007.10157101797</v>
       </c>
       <c r="AE2" t="n">
-        <v>51005.95961784228</v>
+        <v>65685.4342932908</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.22265625848812e-06</v>
+        <v>1.487349655678545e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.356770833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>46138.02241932409</v>
+        <v>59416.5086344392</v>
       </c>
     </row>
     <row r="3">
@@ -14265,28 +14265,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>36.91665705932797</v>
+        <v>47.64535268765282</v>
       </c>
       <c r="AB3" t="n">
-        <v>50.51099883639017</v>
+        <v>65.19047351183647</v>
       </c>
       <c r="AC3" t="n">
-        <v>45.69030000017048</v>
+        <v>58.96878621528488</v>
       </c>
       <c r="AD3" t="n">
-        <v>36916.65705932798</v>
+        <v>47645.35268765282</v>
       </c>
       <c r="AE3" t="n">
-        <v>50510.99883639017</v>
+        <v>65190.47351183647</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.445031318777347e-06</v>
+        <v>1.533142983993731e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.28515625</v>
       </c>
       <c r="AH3" t="n">
-        <v>45690.30000017048</v>
+        <v>58968.78621528488</v>
       </c>
     </row>
   </sheetData>
@@ -14562,28 +14562,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>39.49992579958779</v>
+        <v>50.84657398293588</v>
       </c>
       <c r="AB2" t="n">
-        <v>54.04554109257008</v>
+        <v>69.57052571595672</v>
       </c>
       <c r="AC2" t="n">
-        <v>48.88751050419231</v>
+        <v>62.93081238448719</v>
       </c>
       <c r="AD2" t="n">
-        <v>39499.92579958779</v>
+        <v>50846.57398293588</v>
       </c>
       <c r="AE2" t="n">
-        <v>54045.54109257009</v>
+        <v>69570.52571595673</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.533469048288063e-06</v>
+        <v>1.294400507329318e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.506510416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>48887.51050419231</v>
+        <v>62930.81238448719</v>
       </c>
     </row>
     <row r="3">
@@ -14668,28 +14668,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>38.69135566284034</v>
+        <v>49.86741164559611</v>
       </c>
       <c r="AB3" t="n">
-        <v>52.93921975988073</v>
+        <v>68.23079260841553</v>
       </c>
       <c r="AC3" t="n">
-        <v>47.88677492675978</v>
+        <v>61.71894152440206</v>
       </c>
       <c r="AD3" t="n">
-        <v>38691.35566284035</v>
+        <v>49867.4116455961</v>
       </c>
       <c r="AE3" t="n">
-        <v>52939.21975988073</v>
+        <v>68230.79260841553</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.898250755918626e-06</v>
+        <v>1.366670479671986e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.376302083333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>47886.77492675978</v>
+        <v>61718.94152440206</v>
       </c>
     </row>
   </sheetData>
